--- a/MarsFramework/ExcelData/TestData.xlsx
+++ b/MarsFramework/ExcelData/TestData.xlsx
@@ -14,90 +14,225 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="91">
   <si>
     <t>Title</t>
   </si>
   <si>
+    <t>FirstName</t>
+  </si>
+  <si>
     <t>Url</t>
   </si>
   <si>
-    <t>FirstName</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>SubCategory</t>
+  </si>
+  <si>
     <t>Tag</t>
   </si>
   <si>
+    <t>ServiceType</t>
+  </si>
+  <si>
+    <t>LocationType</t>
+  </si>
+  <si>
     <t>AvailableStartDate</t>
   </si>
   <si>
     <t>AvailableEndDate</t>
   </si>
   <si>
-    <t>SundayStartTime</t>
-  </si>
-  <si>
-    <t>SundayEndTime</t>
+    <t>AvailableDays</t>
+  </si>
+  <si>
+    <t>AvailableStartTimes</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>http://www.skillswap.pro/Home</t>
+  </si>
+  <si>
+    <t>AvailableEndTimes</t>
+  </si>
+  <si>
+    <t>SkillTradeType</t>
+  </si>
+  <si>
+    <t>CreditsAmount</t>
   </si>
   <si>
     <t>SkillExchangeTab</t>
   </si>
   <si>
+    <t>ActiveType</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>ConfirmPswd</t>
+  </si>
+  <si>
+    <t>Anamika</t>
+  </si>
+  <si>
     <t>Test Skill</t>
   </si>
   <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>http://www.skillswap.pro/Home</t>
+    <t>Pait</t>
+  </si>
+  <si>
+    <t>anamika123pait@gmail.com</t>
   </si>
   <si>
     <t>Test Skill Description</t>
   </si>
   <si>
+    <t>ana123</t>
+  </si>
+  <si>
+    <t>Digital Marketing</t>
+  </si>
+  <si>
+    <t>Email Marketing</t>
+  </si>
+  <si>
     <t>testing</t>
   </si>
   <si>
+    <t>Hourly basis service</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
     <t>20/03/2019</t>
   </si>
   <si>
     <t>17/04/2019</t>
   </si>
   <si>
-    <t>0930AM</t>
-  </si>
-  <si>
-    <t>0130PM</t>
+    <t>Sun,Tue,Wed,Thu</t>
+  </si>
+  <si>
+    <t>Sun:0930AM,Tue:0930AM,Wed:0930AM,Thu:0930AM</t>
+  </si>
+  <si>
+    <t>Sun:0130PM,Tue:0130PM,Wed:0130PM,Thu:0130PM</t>
+  </si>
+  <si>
+    <t>Credit</t>
   </si>
   <si>
     <t>Automation testing</t>
   </si>
   <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>ConfirmPswd</t>
-  </si>
-  <si>
-    <t>Anamika</t>
-  </si>
-  <si>
-    <t>Pait</t>
-  </si>
-  <si>
-    <t>anamika123pait@gmail.com</t>
-  </si>
-  <si>
-    <t>ana123</t>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Edited</t>
+  </si>
+  <si>
+    <t>Edited Short Desc</t>
+  </si>
+  <si>
+    <t>Graphics &amp; Design</t>
+  </si>
+  <si>
+    <t>Web &amp; Mobile Design</t>
+  </si>
+  <si>
+    <t>design</t>
+  </si>
+  <si>
+    <t>One-off service</t>
+  </si>
+  <si>
+    <t>On-site</t>
+  </si>
+  <si>
+    <t>25/04/2019</t>
+  </si>
+  <si>
+    <t>20/05/2019</t>
+  </si>
+  <si>
+    <t>Skill-exchange</t>
+  </si>
+  <si>
+    <t>Design Skills</t>
+  </si>
+  <si>
+    <t>Logo Design</t>
+  </si>
+  <si>
+    <t>Book &amp; Album covers</t>
+  </si>
+  <si>
+    <t>Hidden</t>
+  </si>
+  <si>
+    <t>Flyers &amp; Brochures</t>
+  </si>
+  <si>
+    <t>Search &amp; Display Marketing</t>
+  </si>
+  <si>
+    <t>Social Media Marketing</t>
+  </si>
+  <si>
+    <t>Content Marketing</t>
+  </si>
+  <si>
+    <t>Video Marketing</t>
+  </si>
+  <si>
+    <t>Writing &amp; Translation</t>
+  </si>
+  <si>
+    <t>Resumes &amp; Cover Letters</t>
+  </si>
+  <si>
+    <t>Proof Reading &amp; Editing</t>
+  </si>
+  <si>
+    <t>Translation</t>
+  </si>
+  <si>
+    <t>Creative Writing</t>
+  </si>
+  <si>
+    <t>Business Copywriting</t>
+  </si>
+  <si>
+    <t>Video &amp; Animation</t>
+  </si>
+  <si>
+    <t>Music &amp; Audio</t>
+  </si>
+  <si>
+    <t>Programming &amp; Tech</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Fun &amp; Lifestyle</t>
   </si>
   <si>
     <t>Country</t>
@@ -158,25 +293,40 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font/>
     <font>
       <sz val="11.0"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
       <u/>
       <sz val="11.0"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Lato"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Docs-Calibri"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,6 +337,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF4F81BD"/>
         <bgColor rgb="FF4F81BD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -202,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -210,13 +366,37 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -261,7 +441,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>21</v>
@@ -270,27 +450,27 @@
         <v>22</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>27</v>
+      <c r="D2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -1291,10 +1471,13 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="21.71"/>
-    <col customWidth="1" min="4" max="4" width="16.43"/>
-    <col customWidth="1" min="5" max="5" width="16.14"/>
-    <col customWidth="1" min="8" max="8" width="24.0"/>
+    <col customWidth="1" min="2" max="2" width="13.86"/>
+    <col customWidth="1" min="3" max="3" width="18.43"/>
+    <col customWidth="1" min="4" max="4" width="19.43"/>
+    <col customWidth="1" min="6" max="6" width="15.86"/>
+    <col customWidth="1" min="7" max="8" width="16.43"/>
+    <col customWidth="1" min="9" max="9" width="16.14"/>
+    <col customWidth="1" min="13" max="15" width="15.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1322,34 +1505,272 @@
       <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>20</v>
+    <row r="2" ht="97.5" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5">
+      <c r="C5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="D6" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="D7" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="D8" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="D9" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="D11" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="D12" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="D14" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="D16" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="D17" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="D18" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="D19" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" s="10" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="C15:C19"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -1372,24 +1793,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>27</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -2409,28 +2830,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>3</v>
@@ -2438,34 +2859,34 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="J2" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
